--- a/SCHOOL/WW/Vorarbeit Statische Investitionsrechnung Athos AG.xlsx
+++ b/SCHOOL/WW/Vorarbeit Statische Investitionsrechnung Athos AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CIT-23\SCHOOL\WW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC8352E-485C-475F-8DC8-9FAFD222CEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F62A93-0D1B-4D0A-BFD3-98BBF7650225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -314,9 +315,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -329,10 +331,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -350,31 +369,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,17 +390,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -705,77 +706,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="8" customWidth="1"/>
     <col min="2" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="17">
         <v>5000</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17">
         <v>5000</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10">
+      <c r="F4" s="18"/>
+      <c r="G4" s="17">
         <v>4200</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -835,7 +836,7 @@
         <v>2800</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:F13" si="0">B7*C7</f>
+        <f t="shared" ref="D7:D13" si="0">B7*C7</f>
         <v>658000</v>
       </c>
       <c r="E7" s="1">
@@ -1028,40 +1029,45 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="26">
-        <f>AVERAGE(B6:B13)</f>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14:H14" si="3">AVERAGE(B6:B13)</f>
         <v>250</v>
       </c>
-      <c r="C14" s="29">
-        <f>AVERAGE(C6:C13)</f>
+      <c r="C14" s="11">
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="D14" s="26">
-        <f>AVERAGE(D6:D13)</f>
+      <c r="D14" s="9">
+        <f t="shared" si="3"/>
         <v>1008500</v>
       </c>
-      <c r="E14" s="29">
-        <f>AVERAGE(E6:E13)</f>
+      <c r="E14" s="11">
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="F14" s="26">
-        <f>AVERAGE(F6:F13)</f>
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
         <v>1008500</v>
       </c>
-      <c r="G14" s="29">
-        <f>AVERAGE(G6:G13)</f>
+      <c r="G14" s="11">
+        <f t="shared" si="3"/>
         <v>3725</v>
       </c>
-      <c r="H14" s="26">
-        <f>AVERAGE(H6:H13)</f>
+      <c r="H14" s="9">
+        <f t="shared" si="3"/>
         <v>937625</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E2:F2"/>
@@ -1069,11 +1075,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1090,89 +1091,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="8" customWidth="1"/>
     <col min="2" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="17">
         <v>210</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17">
         <v>250</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10">
+      <c r="F4" s="18"/>
+      <c r="G4" s="17">
         <v>180</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -1181,21 +1182,21 @@
       <c r="B6" s="4">
         <v>17</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <f>C4*B6*12</f>
         <v>42840</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="20">
+      <c r="D6" s="18"/>
+      <c r="E6" s="22">
         <f>E4*B6*12</f>
         <v>51000</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20">
+      <c r="F6" s="23"/>
+      <c r="G6" s="22">
         <f>G4*B6*12</f>
         <v>36720</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1204,21 +1205,21 @@
       <c r="B7" s="4">
         <v>17</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="22">
         <f>C4*B7*12</f>
         <v>42840</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="20">
+      <c r="D7" s="18"/>
+      <c r="E7" s="22">
         <f>E4*B7*12</f>
         <v>51000</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20">
+      <c r="F7" s="23"/>
+      <c r="G7" s="22">
         <f>G4*B7*12</f>
         <v>36720</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -1227,21 +1228,21 @@
       <c r="B8" s="4">
         <v>17</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="22">
         <f>C4*B8*12</f>
         <v>42840</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="20">
+      <c r="D8" s="18"/>
+      <c r="E8" s="22">
         <f>E4*B8*12</f>
         <v>51000</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20">
+      <c r="F8" s="23"/>
+      <c r="G8" s="22">
         <f>G4*B8*12</f>
         <v>36720</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -1250,21 +1251,21 @@
       <c r="B9" s="4">
         <v>17</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="22">
         <f>C4*B9*12</f>
         <v>42840</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22">
         <f>E4*B9*12</f>
         <v>51000</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20">
+      <c r="F9" s="23"/>
+      <c r="G9" s="22">
         <f>G4*B9*12</f>
         <v>36720</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -1273,21 +1274,21 @@
       <c r="B10" s="4">
         <v>19</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="22">
         <f>C4*B10*12</f>
         <v>47880</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22">
         <f>E4*B10*12</f>
         <v>57000</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20">
+      <c r="F10" s="23"/>
+      <c r="G10" s="22">
         <f>G4*B10*12</f>
         <v>41040</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1296,21 +1297,21 @@
       <c r="B11" s="4">
         <v>19</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <f>C4*B11*12</f>
         <v>47880</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20">
+      <c r="D11" s="23"/>
+      <c r="E11" s="22">
         <f>E4*B11*12</f>
         <v>57000</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20">
+      <c r="F11" s="23"/>
+      <c r="G11" s="22">
         <f>G4*B11*12</f>
         <v>41040</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -1319,21 +1320,21 @@
       <c r="B12" s="4">
         <v>19</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="22">
         <f>C4*B12*12</f>
         <v>47880</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20">
+      <c r="D12" s="23"/>
+      <c r="E12" s="22">
         <f>E4*B12*12</f>
         <v>57000</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20">
+      <c r="F12" s="23"/>
+      <c r="G12" s="22">
         <f>G4*B12*12</f>
         <v>41040</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1342,48 +1343,74 @@
       <c r="B13" s="4">
         <v>19</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="22">
         <f>C4*B13*12</f>
         <v>47880</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="20">
+      <c r="D13" s="18"/>
+      <c r="E13" s="22">
         <f>E4*B13*12</f>
         <v>57000</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20">
+      <c r="F13" s="23"/>
+      <c r="G13" s="22">
         <f>G4*B13*12</f>
         <v>41040</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="9">
         <f>AVERAGE(B6:B13)</f>
         <v>18</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="24">
         <f>AVERAGE(C6:C13)</f>
         <v>45360</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="30">
+      <c r="D14" s="25"/>
+      <c r="E14" s="24">
         <f>AVERAGE(E6:E13)</f>
         <v>54000</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="30">
+      <c r="F14" s="25"/>
+      <c r="G14" s="24">
         <f>AVERAGE(G6:G13)</f>
         <v>38880</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A1:H1"/>
@@ -1400,32 +1427,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1436,7 +1437,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,93 +1448,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22">
+        <v>150000</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22">
+        <v>155000</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22">
+        <v>114000</v>
+      </c>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="B6" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C6" s="22">
+        <f>C4*B6</f>
+        <v>4500</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="22">
+        <f>E4*B6</f>
+        <v>4650</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="22">
+        <f>G4*B6</f>
+        <v>3420</v>
+      </c>
+      <c r="H6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
@@ -1550,8 +1570,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1561,95 +1579,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B14"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="9"/>
+    <col min="1" max="1" width="11.5546875" style="8"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>32400</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4">
+        <v>32400</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>35400</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>35400</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>35400</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>38400</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>38400</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>38400</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="9">
+        <f>AVERAGE(B6:B13)</f>
+        <v>35775</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1667,77 +1704,83 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H14" sqref="C6:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="9"/>
+    <col min="1" max="1" width="11.5546875" style="8"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1761,109 +1804,266 @@
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="4">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C4*C6*B6</f>
+        <v>270000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F6" s="4">
+        <f>E4*E6*B6</f>
+        <v>234000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G4*G6*B6</f>
+        <v>252000</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="4">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C4*C7*B7</f>
+        <v>315000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2800</v>
+      </c>
+      <c r="F7" s="4">
+        <f>E4*E7*B7</f>
+        <v>273000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2800</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G4*G7*B7</f>
+        <v>293999.99999999994</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="4">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C4*C8*B8</f>
+        <v>432000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="4">
+        <f>E4*E8*B8</f>
+        <v>374400</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="4">
+        <f>G4*G8*B8</f>
+        <v>403200</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="4">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C4*C9*B9</f>
+        <v>528000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4400</v>
+      </c>
+      <c r="F9" s="4">
+        <f>E4*E9*B9</f>
+        <v>457600</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H9" s="4">
+        <f>G4*G9*B9</f>
+        <v>470400</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="4">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C4*C10*B10</f>
+        <v>612000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F10" s="4">
+        <f>E4*E10*B10</f>
+        <v>530400</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H10" s="4">
+        <f>G4*G10*B10</f>
+        <v>499800</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="4">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C4*C11*B11</f>
+        <v>612000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F11" s="4">
+        <f>E4*E11*B11</f>
+        <v>530400</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H11" s="4">
+        <f>G4*G11*B11</f>
+        <v>499800</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="4">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C4*C12*B12</f>
+        <v>648000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F12" s="4">
+        <f>E4*E12*B12</f>
+        <v>561600</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H12" s="4">
+        <f>G4*G12*B12</f>
+        <v>529200</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="4">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C4*C13*B13</f>
+        <v>594000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4400</v>
+      </c>
+      <c r="F13" s="4">
+        <f>E4*E13*B13</f>
+        <v>514800</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H13" s="4">
+        <f>G4*G13*B13</f>
+        <v>529200</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="9">
+        <f>AVERAGE(B6:B13)</f>
+        <v>82.5</v>
+      </c>
+      <c r="C14" s="29">
+        <f>AVERAGE(C6:C13)</f>
+        <v>4000</v>
+      </c>
+      <c r="D14" s="30">
+        <f t="shared" ref="D14:H14" si="0">AVERAGE(D6:D13)</f>
+        <v>501375</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>434525</v>
+      </c>
+      <c r="G14" s="29">
+        <f>AVERAGE(G6:G13)</f>
+        <v>3725</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="0"/>
+        <v>434700</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
@@ -1892,12 +2092,12 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="9"/>
+    <col min="1" max="1" width="11.5546875" style="8"/>
     <col min="2" max="2" width="33.44140625" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -1905,66 +2105,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1988,109 +2194,266 @@
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="4">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C4*C6*B6</f>
+        <v>96000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F6" s="4">
+        <f>E4*E6*B6</f>
+        <v>96000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G4*G6*B6</f>
+        <v>108000</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="4">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C4*C7*B7</f>
+        <v>112000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2800</v>
+      </c>
+      <c r="F7" s="4">
+        <f>E4*E7*B7</f>
+        <v>112000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2800</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G4*G7*B7</f>
+        <v>126000</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="4">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C4*C8*B8</f>
+        <v>161280</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="4">
+        <f>E4*E8*B8</f>
+        <v>161280</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="4">
+        <f>G4*G8*B8</f>
+        <v>181440</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="4">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C4*C9*B9</f>
+        <v>197120</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4400</v>
+      </c>
+      <c r="F9" s="4">
+        <f>E4*E9*B9</f>
+        <v>197120</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H9" s="4">
+        <f>G4*G9*B9</f>
+        <v>211680</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="4">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C4*C10*B10</f>
+        <v>230400</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F10" s="4">
+        <f>E4*E10*B10</f>
+        <v>230400</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H10" s="4">
+        <f>G4*G10*B10</f>
+        <v>226800</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="4">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C4*C11*B11</f>
+        <v>230400</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F11" s="4">
+        <f>E4*E11*B11</f>
+        <v>230400</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H11" s="4">
+        <f>G4*G11*B11</f>
+        <v>226800</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="4">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C4*C12*B12</f>
+        <v>245760</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F12" s="4">
+        <f>E4*E12*B12</f>
+        <v>245760</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H12" s="4">
+        <f>G4*G12*B12</f>
+        <v>241920</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="4">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C4*C13*B13</f>
+        <v>225280</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4400</v>
+      </c>
+      <c r="F13" s="4">
+        <f>E4*E13*B13</f>
+        <v>225280</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H13" s="4">
+        <f>G4*G13*B13</f>
+        <v>241920</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="9">
+        <f>AVERAGE(B6:B13)</f>
+        <v>28.75</v>
+      </c>
+      <c r="C14" s="29">
+        <f>AVERAGE(C6:C13)</f>
+        <v>4000</v>
+      </c>
+      <c r="D14" s="30">
+        <f t="shared" ref="D14:H14" si="0">AVERAGE(D6:D13)</f>
+        <v>187280</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>187280</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>3725</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="0"/>
+        <v>195570</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2116,7 +2479,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2125,104 +2488,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="24">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="27">
         <v>120</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24">
+      <c r="D4" s="28"/>
+      <c r="E4" s="27">
         <v>120</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="24">
+      <c r="F4" s="28"/>
+      <c r="G4" s="27">
         <v>140</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="22">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22">
-        <v>5000</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="22">
-        <v>4200</v>
-      </c>
-      <c r="H6" s="23"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2253,19 +2616,22 @@
         <v>2400</v>
       </c>
       <c r="D8" s="4">
-        <v>57.6</v>
+        <f>B8*C4*C6*C8</f>
+        <v>27648</v>
       </c>
       <c r="E8" s="1">
         <v>2400</v>
       </c>
       <c r="F8" s="4">
-        <v>57.6</v>
+        <f>B8*E4*E6*E8</f>
+        <v>50688</v>
       </c>
       <c r="G8" s="1">
         <v>2400</v>
       </c>
       <c r="H8" s="4">
-        <v>67.2</v>
+        <f>B8*G4*G6*G8</f>
+        <v>53760.000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2279,19 +2645,22 @@
         <v>2800</v>
       </c>
       <c r="D9" s="4">
-        <v>67.2</v>
+        <f>B9*C4*C6*C9</f>
+        <v>32256</v>
       </c>
       <c r="E9" s="1">
         <v>2800</v>
       </c>
       <c r="F9" s="4">
-        <v>67.2</v>
+        <f>B9*E4*E6*E9</f>
+        <v>59136</v>
       </c>
       <c r="G9" s="1">
         <v>2800</v>
       </c>
       <c r="H9" s="4">
-        <v>78.400000000000006</v>
+        <f>B9*G4*G6*G9</f>
+        <v>62720.000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2305,19 +2674,22 @@
         <v>3600</v>
       </c>
       <c r="D10" s="4">
-        <v>86.4</v>
+        <f>B10*C4*C6*C10</f>
+        <v>41472</v>
       </c>
       <c r="E10" s="1">
         <v>3600</v>
       </c>
       <c r="F10" s="4">
-        <v>86.4</v>
+        <f>B10*E4*E6*E10</f>
+        <v>76032</v>
       </c>
       <c r="G10" s="1">
         <v>3600</v>
       </c>
       <c r="H10" s="4">
-        <v>100.8</v>
+        <f>B10*G4*G6*G10</f>
+        <v>80640.000000000015</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2331,19 +2703,22 @@
         <v>4400</v>
       </c>
       <c r="D11" s="4">
-        <v>105.6</v>
+        <f>B11*C4*C6*C11</f>
+        <v>50688</v>
       </c>
       <c r="E11" s="1">
         <v>4400</v>
       </c>
       <c r="F11" s="4">
-        <v>105.6</v>
+        <f>B11*E4*E6*E11</f>
+        <v>92928</v>
       </c>
       <c r="G11" s="1">
         <v>4200</v>
       </c>
       <c r="H11" s="4">
-        <v>117.6</v>
+        <f>B11*G4*G6*G11</f>
+        <v>94080.000000000015</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2357,19 +2732,22 @@
         <v>4800</v>
       </c>
       <c r="D12" s="4">
-        <v>115.2</v>
+        <f>B12*C4*C6*C12</f>
+        <v>69120</v>
       </c>
       <c r="E12" s="1">
         <v>4800</v>
       </c>
       <c r="F12" s="4">
-        <v>115.2</v>
+        <f>B12*E4*E6*E12</f>
+        <v>126720.00000000001</v>
       </c>
       <c r="G12" s="1">
         <v>4200</v>
       </c>
       <c r="H12" s="4">
-        <v>117.6</v>
+        <f>B12*G4*G6*G12</f>
+        <v>117600</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2383,19 +2761,22 @@
         <v>4800</v>
       </c>
       <c r="D13" s="4">
-        <v>115.2</v>
+        <f>B13*C4*C6*C13</f>
+        <v>69120</v>
       </c>
       <c r="E13" s="1">
         <v>4800</v>
       </c>
       <c r="F13" s="4">
-        <v>115.2</v>
+        <f>B13*E4*E6*E13</f>
+        <v>126720.00000000001</v>
       </c>
       <c r="G13" s="1">
         <v>4200</v>
       </c>
       <c r="H13" s="4">
-        <v>117.6</v>
+        <f>B13*G4*G6*G13</f>
+        <v>117600</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2409,19 +2790,22 @@
         <v>4800</v>
       </c>
       <c r="D14" s="4">
-        <v>115.2</v>
+        <f>B14*C4*C6*C14</f>
+        <v>69120</v>
       </c>
       <c r="E14" s="1">
         <v>4800</v>
       </c>
       <c r="F14" s="4">
-        <v>115.2</v>
+        <f>B14*E4*E6*E14</f>
+        <v>126720.00000000001</v>
       </c>
       <c r="G14" s="1">
         <v>4200</v>
       </c>
       <c r="H14" s="4">
-        <v>117.6</v>
+        <f>B14*G4*G6*G14</f>
+        <v>117600</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2435,56 +2819,61 @@
         <v>4400</v>
       </c>
       <c r="D15" s="4">
-        <v>105.6</v>
+        <f>B15*C4*C6*C15</f>
+        <v>63359.999999999993</v>
       </c>
       <c r="E15" s="1">
         <v>4400</v>
       </c>
       <c r="F15" s="4">
-        <v>105.6</v>
+        <f>B15*E4*E6*E15</f>
+        <v>116160.00000000001</v>
       </c>
       <c r="G15" s="1">
         <v>4200</v>
       </c>
       <c r="H15" s="4">
-        <v>117.6</v>
+        <f>B15*G4*G6*G15</f>
+        <v>117600</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="9">
         <f>AVERAGE(B8:B15)</f>
         <v>0.18</v>
       </c>
-      <c r="C16" s="28">
-        <f>SUM(C8:C15)</f>
-        <v>32000</v>
-      </c>
-      <c r="D16" s="26">
-        <f>SUM(D8:D15)</f>
-        <v>768.00000000000011</v>
-      </c>
-      <c r="E16" s="28">
-        <f t="shared" ref="D16:H16" si="0">SUM(E8:E15)</f>
-        <v>32000</v>
-      </c>
-      <c r="F16" s="26">
-        <f>SUM(F8:F15)</f>
-        <v>768.00000000000011</v>
-      </c>
-      <c r="G16" s="28">
-        <f t="shared" si="0"/>
-        <v>29800</v>
-      </c>
-      <c r="H16" s="26">
-        <f>SUM(H8:H15)</f>
-        <v>834.40000000000009</v>
+      <c r="C16" s="11">
+        <f>AVERAGE(C8:C15)</f>
+        <v>4000</v>
+      </c>
+      <c r="D16" s="9">
+        <f>AVERAGE(D8:D15)</f>
+        <v>52848</v>
+      </c>
+      <c r="E16" s="11">
+        <f>AVERAGE(E8:E15)</f>
+        <v>4000</v>
+      </c>
+      <c r="F16" s="9">
+        <f>AVERAGE(F8:F15)</f>
+        <v>96888</v>
+      </c>
+      <c r="G16" s="11">
+        <f>AVERAGE(G8:G15)</f>
+        <v>3725</v>
+      </c>
+      <c r="H16" s="9">
+        <f>AVERAGE(H8:H15)</f>
+        <v>95200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
@@ -2501,8 +2890,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2510,27 +2897,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3714fe45-5bdf-476d-a579-c1b61a02e9df" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005263F1AEB2127D4484E9891F11C82FC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b28a4c778a97047b1a08dbb34ebe5f56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xmlns:ns3="3714fe45-5bdf-476d-a579-c1b61a02e9df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af2d1d70bdd35a58b1844a892b48a73f" ns2:_="" ns3:_="">
     <xsd:import namespace="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
@@ -2725,10 +3091,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3714fe45-5bdf-476d-a579-c1b61a02e9df" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B25D136-8981-49BA-B335-F809C1B89DE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5458AFD-BA06-4098-A7DC-CF0F46D6CF20}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
+    <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2745,20 +3143,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5458AFD-BA06-4098-A7DC-CF0F46D6CF20}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B25D136-8981-49BA-B335-F809C1B89DE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
-    <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SCHOOL/WW/Vorarbeit Statische Investitionsrechnung Athos AG.xlsx
+++ b/SCHOOL/WW/Vorarbeit Statische Investitionsrechnung Athos AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CIT-23\SCHOOL\WW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F62A93-0D1B-4D0A-BFD3-98BBF7650225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44AFC94-F30B-4B8B-BF6D-4881A724969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,7 +320,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -339,6 +339,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,31 +370,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,8 +391,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -701,7 +700,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,72 +710,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="17">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13">
         <v>5000</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13">
         <v>5000</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17">
+      <c r="F4" s="14"/>
+      <c r="G4" s="13">
         <v>4200</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1063,11 +1062,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E2:F2"/>
@@ -1075,6 +1069,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1086,7 +1085,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,84 +1095,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="17">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13">
         <v>210</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13">
         <v>250</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17">
+      <c r="F4" s="14"/>
+      <c r="G4" s="13">
         <v>180</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -1182,21 +1181,21 @@
       <c r="B6" s="4">
         <v>17</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="23">
         <f>C4*B6*12</f>
         <v>42840</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22">
+      <c r="D6" s="14"/>
+      <c r="E6" s="23">
         <f>E4*B6*12</f>
         <v>51000</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="22">
+      <c r="F6" s="26"/>
+      <c r="G6" s="23">
         <f>G4*B6*12</f>
         <v>36720</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1205,21 +1204,21 @@
       <c r="B7" s="4">
         <v>17</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="23">
         <f>C4*B7*12</f>
         <v>42840</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="22">
+      <c r="D7" s="14"/>
+      <c r="E7" s="23">
         <f>E4*B7*12</f>
         <v>51000</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22">
+      <c r="F7" s="26"/>
+      <c r="G7" s="23">
         <f>G4*B7*12</f>
         <v>36720</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -1228,21 +1227,21 @@
       <c r="B8" s="4">
         <v>17</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="23">
         <f>C4*B8*12</f>
         <v>42840</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="22">
+      <c r="D8" s="14"/>
+      <c r="E8" s="23">
         <f>E4*B8*12</f>
         <v>51000</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22">
+      <c r="F8" s="26"/>
+      <c r="G8" s="23">
         <f>G4*B8*12</f>
         <v>36720</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -1251,21 +1250,21 @@
       <c r="B9" s="4">
         <v>17</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="23">
         <f>C4*B9*12</f>
         <v>42840</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22">
+      <c r="D9" s="26"/>
+      <c r="E9" s="23">
         <f>E4*B9*12</f>
         <v>51000</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22">
+      <c r="F9" s="26"/>
+      <c r="G9" s="23">
         <f>G4*B9*12</f>
         <v>36720</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -1274,21 +1273,21 @@
       <c r="B10" s="4">
         <v>19</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="23">
         <f>C4*B10*12</f>
         <v>47880</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23">
         <f>E4*B10*12</f>
         <v>57000</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22">
+      <c r="F10" s="26"/>
+      <c r="G10" s="23">
         <f>G4*B10*12</f>
         <v>41040</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1297,21 +1296,21 @@
       <c r="B11" s="4">
         <v>19</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="23">
         <f>C4*B11*12</f>
         <v>47880</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22">
+      <c r="D11" s="26"/>
+      <c r="E11" s="23">
         <f>E4*B11*12</f>
         <v>57000</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22">
+      <c r="F11" s="26"/>
+      <c r="G11" s="23">
         <f>G4*B11*12</f>
         <v>41040</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -1320,21 +1319,21 @@
       <c r="B12" s="4">
         <v>19</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="23">
         <f>C4*B12*12</f>
         <v>47880</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22">
+      <c r="D12" s="26"/>
+      <c r="E12" s="23">
         <f>E4*B12*12</f>
         <v>57000</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22">
+      <c r="F12" s="26"/>
+      <c r="G12" s="23">
         <f>G4*B12*12</f>
         <v>41040</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1343,21 +1342,21 @@
       <c r="B13" s="4">
         <v>19</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="23">
         <f>C4*B13*12</f>
         <v>47880</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="22">
+      <c r="D13" s="14"/>
+      <c r="E13" s="23">
         <f>E4*B13*12</f>
         <v>57000</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22">
+      <c r="F13" s="26"/>
+      <c r="G13" s="23">
         <f>G4*B13*12</f>
         <v>41040</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1385,6 +1384,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
@@ -1401,32 +1426,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1437,7 +1436,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,84 +1447,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="23">
         <v>150000</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22">
+      <c r="D4" s="26"/>
+      <c r="E4" s="23">
         <v>155000</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22">
+      <c r="F4" s="26"/>
+      <c r="G4" s="23">
         <v>114000</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1534,29 +1533,24 @@
       <c r="B6" s="6">
         <v>0.03</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="23">
         <f>C4*B6</f>
         <v>4500</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22">
+      <c r="D6" s="14"/>
+      <c r="E6" s="23">
         <f>E4*B6</f>
         <v>4650</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="22">
+      <c r="F6" s="14"/>
+      <c r="G6" s="23">
         <f>G4*B6</f>
         <v>3420</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -1570,6 +1564,11 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1580,7 +1579,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,30 +1589,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -1704,7 +1703,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="C6:H14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,72 +1714,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="17">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13">
         <v>1.5</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13">
         <v>1.3</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17">
+      <c r="F4" s="14"/>
+      <c r="G4" s="13">
         <v>1.4</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2040,27 +2039,27 @@
         <f>AVERAGE(B6:B13)</f>
         <v>82.5</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="11">
         <f>AVERAGE(C6:C13)</f>
         <v>4000</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="12">
         <f t="shared" ref="D14:H14" si="0">AVERAGE(D6:D13)</f>
         <v>501375</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>434525</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="11">
         <f>AVERAGE(G6:G13)</f>
         <v>3725</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>434700</v>
       </c>
@@ -2092,7 +2091,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2105,72 +2104,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="17">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13">
         <v>1.6</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13">
         <v>1.6</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17">
+      <c r="F4" s="14"/>
+      <c r="G4" s="13">
         <v>1.8</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2430,27 +2429,27 @@
         <f>AVERAGE(B6:B13)</f>
         <v>28.75</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="11">
         <f>AVERAGE(C6:C13)</f>
         <v>4000</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="12">
         <f t="shared" ref="D14:H14" si="0">AVERAGE(D6:D13)</f>
         <v>187280</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>187280</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>3725</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>195570</v>
       </c>
@@ -2479,7 +2478,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2488,104 +2487,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="27">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="28">
         <v>120</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27">
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
         <v>120</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27">
+      <c r="F4" s="29"/>
+      <c r="G4" s="28">
         <v>140</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="26">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="27">
         <v>0.6</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <v>1.1000000000000001</v>
       </c>
       <c r="F6" s="25"/>
-      <c r="G6" s="26">
+      <c r="G6" s="27">
         <v>1</v>
       </c>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2842,36 +2841,38 @@
         <v>9</v>
       </c>
       <c r="B16" s="9">
-        <f>AVERAGE(B8:B15)</f>
+        <f t="shared" ref="B16:H16" si="0">AVERAGE(B8:B15)</f>
         <v>0.18</v>
       </c>
       <c r="C16" s="11">
-        <f>AVERAGE(C8:C15)</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="D16" s="9">
-        <f>AVERAGE(D8:D15)</f>
+        <f t="shared" si="0"/>
         <v>52848</v>
       </c>
       <c r="E16" s="11">
-        <f>AVERAGE(E8:E15)</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="F16" s="9">
-        <f>AVERAGE(F8:F15)</f>
+        <f t="shared" si="0"/>
         <v>96888</v>
       </c>
       <c r="G16" s="11">
-        <f>AVERAGE(G8:G15)</f>
+        <f t="shared" si="0"/>
         <v>3725</v>
       </c>
       <c r="H16" s="9">
-        <f>AVERAGE(H8:H15)</f>
+        <f t="shared" si="0"/>
         <v>95200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:H1"/>
@@ -2888,8 +2889,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2897,6 +2896,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3714fe45-5bdf-476d-a579-c1b61a02e9df" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005263F1AEB2127D4484E9891F11C82FC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b28a4c778a97047b1a08dbb34ebe5f56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xmlns:ns3="3714fe45-5bdf-476d-a579-c1b61a02e9df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af2d1d70bdd35a58b1844a892b48a73f" ns2:_="" ns3:_="">
     <xsd:import namespace="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
@@ -3091,28 +3111,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3714fe45-5bdf-476d-a579-c1b61a02e9df" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B25D136-8981-49BA-B335-F809C1B89DE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{087474DD-CDB5-4DBD-AD10-F0100821DEED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
+    <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5458AFD-BA06-4098-A7DC-CF0F46D6CF20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3129,23 +3147,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{087474DD-CDB5-4DBD-AD10-F0100821DEED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
-    <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B25D136-8981-49BA-B335-F809C1B89DE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SCHOOL/WW/Vorarbeit Statische Investitionsrechnung Athos AG.xlsx
+++ b/SCHOOL/WW/Vorarbeit Statische Investitionsrechnung Athos AG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CIT-23\SCHOOL\WW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44AFC94-F30B-4B8B-BF6D-4881A724969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B58073-5BFE-4CA3-A30D-B9D5F1B586CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,6 +340,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,31 +370,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,7 +700,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,72 +710,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18">
         <v>5000</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18">
         <v>5000</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18">
         <v>4200</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1062,6 +1062,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E2:F2"/>
@@ -1069,11 +1074,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1095,84 +1095,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18">
         <v>210</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18">
         <v>250</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18">
         <v>180</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -1185,17 +1185,17 @@
         <f>C4*B6*12</f>
         <v>42840</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="23">
         <f>E4*B6*12</f>
         <v>51000</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="23">
         <f>G4*B6*12</f>
         <v>36720</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1208,17 +1208,17 @@
         <f>C4*B7*12</f>
         <v>42840</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="23">
         <f>E4*B7*12</f>
         <v>51000</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="23">
         <f>G4*B7*12</f>
         <v>36720</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -1231,17 +1231,17 @@
         <f>C4*B8*12</f>
         <v>42840</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="23">
         <f>E4*B8*12</f>
         <v>51000</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="23">
         <f>G4*B8*12</f>
         <v>36720</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -1254,17 +1254,17 @@
         <f>C4*B9*12</f>
         <v>42840</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="23">
         <f>E4*B9*12</f>
         <v>51000</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="23">
         <f>G4*B9*12</f>
         <v>36720</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -1277,17 +1277,17 @@
         <f>C4*B10*12</f>
         <v>47880</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="23">
         <f>E4*B10*12</f>
         <v>57000</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="23">
         <f>G4*B10*12</f>
         <v>41040</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1300,17 +1300,17 @@
         <f>C4*B11*12</f>
         <v>47880</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="23">
         <f>E4*B11*12</f>
         <v>57000</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="23">
         <f>G4*B11*12</f>
         <v>41040</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -1323,17 +1323,17 @@
         <f>C4*B12*12</f>
         <v>47880</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="23">
         <f>E4*B12*12</f>
         <v>57000</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="23">
         <f>G4*B12*12</f>
         <v>41040</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1346,17 +1346,17 @@
         <f>C4*B13*12</f>
         <v>47880</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="23">
         <f>E4*B13*12</f>
         <v>57000</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="23">
         <f>G4*B13*12</f>
         <v>41040</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -1366,24 +1366,50 @@
         <f>AVERAGE(B6:B13)</f>
         <v>18</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="25">
         <f>AVERAGE(C6:C13)</f>
         <v>45360</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24">
+      <c r="D14" s="26"/>
+      <c r="E14" s="25">
         <f>AVERAGE(E6:E13)</f>
         <v>54000</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24">
+      <c r="F14" s="26"/>
+      <c r="G14" s="25">
         <f>AVERAGE(G6:G13)</f>
         <v>38880</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A1:H1"/>
@@ -1400,32 +1426,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,84 +1447,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="23">
         <v>150000</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="23">
         <v>155000</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="23">
         <v>114000</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1534,23 +1534,26 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="23">
-        <f>C4*B6</f>
-        <v>4500</v>
-      </c>
-      <c r="D6" s="14"/>
+        <f>C4*B6*6</f>
+        <v>27000</v>
+      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="23">
-        <f>E4*B6</f>
-        <v>4650</v>
-      </c>
-      <c r="F6" s="14"/>
+        <f>E4*B6*6</f>
+        <v>27900</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="23">
-        <f>G4*B6</f>
-        <v>3420</v>
-      </c>
-      <c r="H6" s="14"/>
+        <f>G4*B6*6</f>
+        <v>20520</v>
+      </c>
+      <c r="H6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -1566,9 +1569,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1592,27 +1592,27 @@
       <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -1714,72 +1714,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18">
         <v>1.5</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18">
         <v>1.3</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18">
         <v>1.4</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2091,7 +2091,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2104,72 +2104,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18">
         <v>1.6</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18">
         <v>1.6</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18">
         <v>1.8</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2478,7 +2478,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2487,56 +2487,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="28">
         <v>120</v>
       </c>
@@ -2551,40 +2551,40 @@
       <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="27">
         <v>0.6</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="27">
         <v>1</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2871,6 +2871,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="E5:F5"/>
@@ -2887,8 +2889,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2896,27 +2896,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3714fe45-5bdf-476d-a579-c1b61a02e9df" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005263F1AEB2127D4484E9891F11C82FC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b28a4c778a97047b1a08dbb34ebe5f56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xmlns:ns3="3714fe45-5bdf-476d-a579-c1b61a02e9df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af2d1d70bdd35a58b1844a892b48a73f" ns2:_="" ns3:_="">
     <xsd:import namespace="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
@@ -3111,10 +3090,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3714fe45-5bdf-476d-a579-c1b61a02e9df" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B25D136-8981-49BA-B335-F809C1B89DE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5458AFD-BA06-4098-A7DC-CF0F46D6CF20}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
+    <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3131,20 +3142,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5458AFD-BA06-4098-A7DC-CF0F46D6CF20}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B25D136-8981-49BA-B335-F809C1B89DE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
-    <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>